--- a/x3/model_x3_summary.xlsx
+++ b/x3/model_x3_summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\sherlock-final-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\sherlock-final-project\x3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8D929B-B635-4763-93D2-C5B889395C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82064DF-5D1C-4D65-AC17-E0D3EF34BE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -11207,9 +11207,11 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -12504,7 +12506,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{90CE570B-5DEC-4876-A2AC-A28E8CB9EC6A}" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{90CE570B-5DEC-4876-A2AC-A28E8CB9EC6A}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisCol" showAll="0">
@@ -12749,6 +12751,27 @@
     <dataField name="Average of test_mse" fld="3" subtotal="average" baseField="1" baseItem="0"/>
   </dataFields>
   <conditionalFormats count="2">
+    <conditionalFormat priority="1">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="0" count="5" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+            </reference>
+            <reference field="1" count="1">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
     <conditionalFormat priority="2">
       <pivotAreas count="1">
         <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
@@ -12777,27 +12800,6 @@
               <x v="17"/>
               <x v="18"/>
               <x v="19"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="1">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="0" count="5" selected="0">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-              <x v="4"/>
-            </reference>
-            <reference field="1" count="1">
-              <x v="0"/>
             </reference>
           </references>
         </pivotArea>
@@ -13105,7 +13107,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E5D598-C9D0-4CC4-B6E0-EDDCC3D205F4}">
   <dimension ref="A3:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -13150,485 +13152,485 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>1.2715118005871769E-2</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5">
         <v>1.1384245008230209E-2</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5">
         <v>1.7178483307361599E-2</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5">
         <v>1.1056299321353441E-2</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5">
         <v>1.195721141993999E-2</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5">
         <v>1.2858271412551404E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>2</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>3.670579195022583E-2</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6">
         <v>1.3252331875264639E-2</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6">
         <v>1.3445231132209299E-2</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6">
         <v>1.3932495377957819E-2</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6">
         <v>1.672675646841526E-2</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6">
         <v>1.8812521360814568E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>3</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>2.2065252065658569E-2</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7">
         <v>2.5233408436179161E-2</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7">
         <v>1.896106451749802E-2</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7">
         <v>1.713492721319199E-2</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7">
         <v>2.286792732775211E-2</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7">
         <v>2.1252515912055969E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>4</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>1.9949572160840031E-2</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8">
         <v>2.3765381425619129E-2</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8">
         <v>1.6176497563719749E-2</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8">
         <v>1.7343839630484581E-2</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8">
         <v>1.746299862861633E-2</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8">
         <v>1.8939657881855965E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>5</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9">
         <v>2.127539366483688E-2</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9">
         <v>2.5019032880663868E-2</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9">
         <v>1.8817588686943051E-2</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9">
         <v>1.8535705283284191E-2</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9">
         <v>1.414586324244738E-2</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9">
         <v>1.955871675163507E-2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>6</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10">
         <v>2.830205857753754E-2</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10">
         <v>1.6787581145763401E-2</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10">
         <v>1.578043773770332E-2</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10">
         <v>1.562124583870173E-2</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10">
         <v>1.9770188257098201E-2</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10">
         <v>1.9252302311360835E-2</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>7</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11">
         <v>1.998358778655529E-2</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11">
         <v>1.6456557437777519E-2</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11">
         <v>3.1154455617070202E-2</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11">
         <v>1.680094376206398E-2</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11">
         <v>2.7602210640907291E-2</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11">
         <v>2.2399551048874856E-2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>8</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12">
         <v>3.1375307589769363E-2</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12">
         <v>1.509746722877026E-2</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12">
         <v>2.3776903748512272E-2</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12">
         <v>2.1253615617752079E-2</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12">
         <v>1.6596643254160881E-2</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12">
         <v>2.1619987487792969E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>9</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13">
         <v>2.3478996008634571E-2</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13">
         <v>2.2341083735227581E-2</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13">
         <v>2.3217752575874329E-2</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13">
         <v>1.7200624570250511E-2</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13">
         <v>2.0848056301474571E-2</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13">
         <v>2.1417302638292314E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>10</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14">
         <v>1.367350202053785E-2</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14">
         <v>2.0413946360349659E-2</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14">
         <v>1.8217477947473529E-2</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14">
         <v>1.9490193575620651E-2</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14">
         <v>1.864469051361084E-2</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14">
         <v>1.8087962083518504E-2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>11</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15">
         <v>1.907197572290897E-2</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15">
         <v>2.1044431254267689E-2</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15">
         <v>2.0090121775865551E-2</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15">
         <v>1.568974182009697E-2</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15">
         <v>2.3563044145703319E-2</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15">
         <v>1.9891862943768497E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>12</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16">
         <v>2.2941965609788891E-2</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16">
         <v>2.481849305331707E-2</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16">
         <v>1.9227918237447739E-2</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16">
         <v>1.699045300483704E-2</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16">
         <v>1.5183184295892721E-2</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16">
         <v>1.983240284025669E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>13</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17">
         <v>1.965233683586121E-2</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17">
         <v>1.71011071652174E-2</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17">
         <v>2.0536428317427639E-2</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17">
         <v>2.3318227380514141E-2</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17">
         <v>2.590847201645374E-2</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17">
         <v>2.1303314343094827E-2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>14</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18">
         <v>2.0900240167975429E-2</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18">
         <v>1.6903191804885861E-2</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18">
         <v>2.8040666133165359E-2</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18">
         <v>2.719117142260075E-2</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18">
         <v>2.0652091130614281E-2</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18">
         <v>2.2737472131848336E-2</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>15</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19">
         <v>1.835357770323753E-2</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19">
         <v>2.2576995193958279E-2</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19">
         <v>2.2442655637860302E-2</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19">
         <v>2.1099891513586041E-2</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19">
         <v>2.2327585145831112E-2</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19">
         <v>2.1360141038894654E-2</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>16</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20">
         <v>1.906367763876915E-2</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20">
         <v>2.081610448658466E-2</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20">
         <v>1.6276724636554721E-2</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20">
         <v>1.5741663053631779E-2</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20">
         <v>2.0848909392952919E-2</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20">
         <v>1.8549415841698648E-2</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>17</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21">
         <v>2.1274833008646968E-2</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21">
         <v>2.0791796967387199E-2</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21">
         <v>1.702629029750824E-2</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21">
         <v>2.2923756390810009E-2</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21">
         <v>2.4085670709609989E-2</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21">
         <v>2.1220469474792482E-2</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>18</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22">
         <v>2.642056904733181E-2</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22">
         <v>1.8267044797539711E-2</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22">
         <v>1.86060257256031E-2</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22">
         <v>2.102362364530563E-2</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22">
         <v>2.3332823067903519E-2</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22">
         <v>2.1530017256736755E-2</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>19</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23">
         <v>1.7744973301887509E-2</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23">
         <v>2.1316653117537498E-2</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23">
         <v>1.95466224104166E-2</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23">
         <v>2.3229876533150669E-2</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23">
         <v>1.9068444147706028E-2</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23">
         <v>2.0181313902139664E-2</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>20</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24">
         <v>1.627674512565136E-2</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24">
         <v>1.821506954729557E-2</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24">
         <v>1.9240818917751309E-2</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24">
         <v>2.3194713518023491E-2</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24">
         <v>1.6128703951835629E-2</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24">
         <v>1.8611210212111474E-2</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25">
         <v>2.1561273699626328E-2</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25">
         <v>1.9580096146091817E-2</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25">
         <v>1.9888008246198297E-2</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25">
         <v>1.8938650423660879E-2</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25">
         <v>1.9886073702946306E-2</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25">
         <v>1.9970820443704726E-2</v>
       </c>
     </row>
@@ -13665,7 +13667,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="J62" sqref="J62"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -15618,7 +15622,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>62</v>
       </c>
@@ -15637,7 +15641,7 @@
       <c r="F62">
         <v>50</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H62" t="s">
